--- a/biology/Zoologie/Fountainea_glycerium/Fountainea_glycerium.xlsx
+++ b/biology/Zoologie/Fountainea_glycerium/Fountainea_glycerium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fountainea glycerium  est un insecte lépidoptère de la famille des Nymphalidae et de la sous-famille des Charaxinae et du genre Fountainea.
 </t>
@@ -511,121 +523,304 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fountainea glycerium a été décrit par Edward Doubleday en 1849 sous le nom initial de Paphia glycerium.
-Synonyme : Memphis glycerium, Anaea glycerium ; Godman &amp; Salvin, [1884][1].
-Noms vernaculaires
-Fountainea glycerium se nomme Crinkled Leafwing ou Angled Leafwing en anglais[1],[2].
-Sous-espèces
-Fountainea glycerium glycerium
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea glycerium a été décrit par Edward Doubleday en 1849 sous le nom initial de Paphia glycerium.
+Synonyme : Memphis glycerium, Anaea glycerium ; Godman &amp; Salvin, .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea glycerium se nomme Crinkled Leafwing ou Angled Leafwing en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fountainea glycerium glycerium
 Fountainea glycerium comstocki (Witt, 1972); présent en Colombie.
 Fountainea glycerium cratais (Hewitson, 1874); présent en Bolivie.
 Fountainea glycerium johnsoni (Avinoff &amp; Shoumatoff, 1941); présent à la Jamaïque.
 Fountainea glycerium venezuelana (Johnson &amp; Comstock, 1941); présent au Venezuela.
-Fountainea glycerium yucatanum (Witt, 1980); présent au Mexique[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fountainea_glycerium</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Fountainea glycerium yucatanum (Witt, 1980); présent au Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fountainea glycerium est un papillon d'une envergure de 59 mm à 81 mm, aux ailes antérieures à bord costal bossu, apex pointu, bord externe concave, aux ailes postérieures avec chacune une queue[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea glycerium est un papillon d'une envergure de 59 mm à 81 mm, aux ailes antérieures à bord costal bossu, apex pointu, bord externe concave, aux ailes postérieures avec chacune une queue.
 Le dessus est de couleur orange brillant avec aux ailes antérieures l'apex marron.
 Le revers est beige et mime une feuille morte.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fountainea_glycerium</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa forme de la saison humide vole de juin à septembre, de la saison sèche en octobre, mais dans le sud du Texas il ne vole qu'en juillet[3].
-Plantes hôtes
-La plante hôte de sa chenille est un Croton, Croton jalapensis[1],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa forme de la saison humide vole de juin à septembre, de la saison sèche en octobre, mais dans le sud du Texas il ne vole qu'en juillet.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fountainea_glycerium</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est un Croton, Croton jalapensis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fountainea glycerium est présent dans le sud des États-Unis (sud du Texas et de l'Arizona), au Mexique, au Costa Rica, à Panama, en Colombie, au Venezuela et au Brésil[1],[2].
-Biotope
-Fountainea glycerium réside dans la forêt subtropicale humide[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea glycerium est présent dans le sud des États-Unis (sud du Texas et de l'Arizona), au Mexique, au Costa Rica, à Panama, en Colombie, au Venezuela et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fountainea glycerium réside dans la forêt subtropicale humide.
 Sur les autres projets Wikimedia :
 Fountainea glycerium, sur Wikimedia CommonsFountainea glycerium, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fountainea_glycerium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
